--- a/P0016/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0016/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0016\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0016/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92585E01-F61B-4797-A860-91BBAED9DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{92585E01-F61B-4797-A860-91BBAED9DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3BBBC37-C6DF-4176-8399-13B5F189E5AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -101,6 +101,9 @@
     <t>Vol6_Evaluación Sistémica Dimensión Ambiental Mojana_vFINAL_23abr2012</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 6/Vol6_Evaluación Sistémica Dimensión Ambiental Mojana_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -119,7 +122,7 @@
     <t>pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento describe la metodologia implementada (ESIA)  Evaluación Sistémica del Impacto Ambiental.  Se realiza la identificación y caracterización  de alternativas o escenarios de actuación antrópica (se estudian cuatro alternativas: condicion antigua, actual, mejorada y ambientalmente sostenible). Luego se realiza la identificación y caracterizacion de los factores ambientales susceptibles a ser impactados, tomando en cuenta factores abióticos, bióticos, sociales y socioecológicos.   Se realiza la identificación de los impactos ambientales con la matriz de impactos.  Finalmente se realiza la valoración, evaluación y análisis cualitativo de impactos ambientales y se exponen los resultados y análisis de la valoración cualitativa.  El documento contiene una breve descripción del estado limnológico de los complejos cenagosos: San Jorge-Brazo de Loba-Bajo Cauca-Caño Pancegüita, Caño Pancegüita-Caño Mojana, Caño Mojana y Ayapel. Para cada complejo menciona de forma sucinta las ciénagas que  los conforman, sus aferentes y eferentes, la presencia de taponamientos por macrófitas o sedimentación y el grado de desecación. </t>
+    <t xml:space="preserve">El documento describe la metodologia implementada (ESIA)  Evaluación Sistémica del Impacto Ambiental.  Se realiza la identificación y caracterización  de alternativas o escenarios de actuación antrópica (se estudian cuatro alternativas: condicion antigua, actual, mejorada y ambientalmente sostenible). Luego se realiza la identificación y caracterizacion de los factores ambientales susceptibles a ser impactados, tomando en cuenta factores abióticos, bióticos, sociales y socioecológicos. Se realiza la identificación de los impactos ambientales con la matriz de impactos.  Finalmente se realiza la valoración, evaluación y análisis cualitativo de impactos ambientales y se exponen los resultados y análisis de la valoración cualitativa.  El documento contiene una breve descripción del estado limnológico de los complejos cenagosos: San Jorge-Brazo de Loba-Bajo Cauca-Caño Pancegüita, Caño Pancegüita-Caño Mojana, Caño Mojana y Ayapel. Para cada complejo menciona de forma sucinta las ciénagas que  los conforman, sus aferentes y eferentes, la presencia de taponamientos por macrófitas o sedimentación y el grado de desecación. </t>
   </si>
   <si>
     <t>No</t>
@@ -128,7 +131,7 @@
     <t>Información precisa y oportuna referente a la evaluación sistémica del impacto ambiental</t>
   </si>
   <si>
-    <t>Impacto ambiental, Calidad del agua, Uso del suelo, Caudal, Regulación hídrica, Estado limnológico, Fauna, Flora, Sedimentos, Gobernabilidad, Salud Pública, San Jorge, Brazo de Loba, Caño Mojana, Caño Panceguita, Ayapel.</t>
+    <t>Impacto ambiental, calidad del agua, uso del suelo, caudal, regulación hídrica, estado limnológico, fauna, flora, sedimentos, gobernabilidad, salud pública, San Jorge, Brazo de Loba, Caño Mojana, Caño Panceguita, Ayapel.</t>
   </si>
   <si>
     <t>PR1002</t>
@@ -137,19 +140,21 @@
     <t>Vol5_Diagnóstico Prácticas e Instrumentos de Gestión_vFINAL_23abr2012.pdf"</t>
   </si>
   <si>
-    <t>_x000D_
-El documento constituye el Volúmen 5 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región.  Corresponde al informe final de las actividades desarrolladas de modelación matemática hidráulica y de calidad del agua del sistema hídrico de la Mojana._x000D_
-_x000D_
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 5/Vol5_Diagnóstico Prácticas e Instrumentos de Gestión_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>El documento constituye el Volúmen 5 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región.  Corresponde al informe final de las actividades desarrolladas de modelación matemática hidráulica y de calidad del agua del sistema hídrico de la Mojana.
 El informe destaca cómo la configuración histórica de La Mojana influye en su planificación territorial. A través del capítulo "Antecedentes históricos de la planificación de la Mojana: configuración de factores sociales", se analiza cómo diversos factores sociales han dado forma a la región, subrayando la importancia de estas influencias en la planificación actual. En "Diagnóstico de prácticas e instrumentos de gestión", se describen las estrategias de ordenamiento territorial que se han desarrollado a niveles nacional, regional y local, mostrando una evolución que busca enfrentar los desafíos ambientales y de riesgo, especialmente las recurrentes inundaciones. La sección "Análisis regional de amenazas y vulnerabilidades" profundiza en la infraestructura y gestión del riesgo implementadas por las comunidades locales, revelando cómo combinan conocimientos tradicionales con enfoques locales para mejorar la resiliencia. Además, el informe examina el marco legal y político en "Marco legal y político de la gestión del riesgo", destacando la normativa relacionada con la gestión del riesgo de desastres. Finalmente, el capítulo "Una visión integral del territorio de la Mojana" propone una perspectiva que integra los subsistemas naturales y socioculturales, reforzando la necesidad de una gestión del territorio que considere estas interacciones sistémicas para una planificación más efectiva y resiliente.</t>
   </si>
   <si>
-    <t xml:space="preserve"> El informe revisa antecedentes históricos, el marco legal y político de la gestión del riesgo, y analiza instrumentos de gestión a nivel nacional, regional y local. Se evalúan las amenazas y vulnerabilidades de la región, especialmente frente a inundaciones, y se propone un enfoque integral que considere las interacciones entre subsistemas naturales, ambientales y socioculturales. También se reflexiona sobre la descentralización y se analiza el impacto de la intervención y no intervención estatal en los aspectos económicos, sociales, ambientales y culturales.</t>
+    <t xml:space="preserve">El documento "Estudios, Análisis y Recomendaciones para el Ordenamiento Ambiental y el Desarrollo Territorial de La Mojana" presenta un diagnóstico integral sobre la gestión del riesgo y el desarrollo territorial en la región de La Mojana, Colombia. A través de un análisis exhaustivo de la información estadística, mapas de riesgo y vulnerabilidad, se identifican las principales problemáticas y oportunidades para mejorar la resiliencia de las comunidades ante desastres naturales. Su objetivo principal es proporcionar un diagnóstico integral sobre las prácticas e instrumentos de gestión en la región de La Mojana, que abarca los departamentos de Sucre y Córdoba, y sus respectivos municipios, con un enfoque en la gestión del riesgo de desastres y el desarrollo sostenible. El documento emplea un enfoque metodológico mixto que combina análisis cualitativos y cuantitativos. Se recopila y analiza información estadística sobre desastres, mapas de riesgo y indicadores de vulnerabilidad. Además, se utilizan metodologías de evaluación de vulnerabilidad y capacidad de gestión local, que permiten identificar áreas críticas y proponer intervenciones adecuadas. Los resultados relevantes de este estudio son los siguientes: 1. Vulnerabilidad y Riesgo: Se evidencia una alta vulnerabilidad de las comunidades debido a factores geográficos y climáticos, lo que requiere un enfoque proactivo en la gestión del riesgo. 2. Marco Normativo: El marco normativo actual se centra más en la respuesta a desastres que en la prevención, lo que limita la efectividad de las acciones de gestión del riesgo. 3. Educación y Concientización: Se destaca la importancia de la educación y la concientización en la creación de una cultura de seguridad y resiliencia a nivel comunitario. 4. Infraestructura y Monitoreo: Se propone la construcción de infraestructura adecuada y la implementación de un sistema de monitoreo hidrológico para mejorar la planificación y respuesta ante inundaciones. 5. Políticas de Gestión de Riesgo: Se identifican políticas estratégicas en el Plan de Desarrollo Económico y Social del Departamento de Sucre que buscan fortalecer las capacidades institucionales y comunitarias en la gestión del riesgo. El informe concluye que la gestión del riesgo debe ser integrada en los procesos de ordenamiento territorial, priorizando la prevención sobre la respuesta. Además, es fundamental fomentar la participación comunitaria en la identificación y gestión de riesgos, así como en el mantenimiento de la infraestructura. El documento contiene anexos inmersos en el mismo
+</t>
   </si>
   <si>
     <t>Hay información de todos los componentes. Se describe el medio físico y biótico de La Mojana. Se hace un análisis de amenazas y vulnerabilidades de inundación en la región. También contiene el diccionario de datos de la GDB.</t>
   </si>
   <si>
-    <t>Ordenamiento territorial, desarollo territorial, configuración histórica, gestión del riesgo, Emergencia invernal 2010-2011, amenazas, vulnerabilidades, sistema socioeconómico, descentralzación, sistema natural</t>
+    <t>Ordenamiento territorial, desarrollo territorial, configuración histórica, gestión del riesgo, emergencia invernal 2010-2011, amenazas, vulnerabilidades, sistema socioeconómico, descentralización, sistema natural</t>
   </si>
   <si>
     <t>PR1003</t>
@@ -158,34 +163,30 @@
     <t>Vol1_Modelación Matemática_vFINAL_23abr2012</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento constituye el Volúmen 1 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región.  Corresponde al informe final de las actividades desarrolladas de modelación matemática hidráulica y de calidad del agua del sistema hídrico de la Mojana._x000D_
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Vol1_Modelación Matemática_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento constituye el Volúmen 1 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región.  Corresponde al informe final de las actividades desarrolladas de modelación matemática hidráulica y de calidad del agua del sistema hídrico de la Mojana. El informe se encuentra dividido por capítulos de la siguiente manera:  El Capítulo 2 presenta todos los elementos conceptuales tenidos en cuenta en el desarrollo del modelo hidráulico y de calidad del agua, incluyendo los objetivos de la modelación, las complejidades del sistema modelado, la justificación del modelo seleccionado, y el alcance requerido; en el Capítulo 3 se describe el marco de modelación seguido para obtener una herramienta confiable a nivel de planeamiento y evaluación de alternativas; en el Capítulo 4 se presenta la conceptualización del modelo matemático del sistema hídrico de la Mojana; en el Capítulo 5 se describe la formulación numérica del modelo, se incluyen las ecuaciones gobernantes, se presenta un listado de los datos requeridos y los parámetros de calibración del modelo; en el Capítulo 6 se describen los datos utilizados en el montaje y aplicación del modelo correspondiente a información secundaria recopilada y procesada en este estudio; en el Capítulo 7 se describe la calibración hidráulica e hidrológica del sistema y se resumen brevemente las actividades de implementación y simulación de escenarios que se considera permitieron entender mejor el complejo sistema hídrico de la región de la Mojana, y optimizar el diseño previsto de obras hidráulicas, canales y limpieza y adecuación de caños. Finalmente, en el Capítulo 8 se presentan las conclusiones y recomendaciones.
 </t>
   </si>
   <si>
-    <t>Informe final</t>
-  </si>
-  <si>
-    <t>El informe se encuentra dividido por capítulos de la siguiente manera:  El Capítulo 2 presenta todos los elementos conceptuales tenidos en cuenta en el desarrollo del modelo hidráulico y de calidad del agua, incluyendo los objetivos de la modelación, las complejidades del sistema modelado, la justificación del modelo seleccionado, y el alcance requerido; en el Capítulo 3 se describe el marco de modelación seguido para obtener una herramienta confiable a nivel de planeamiento y evaluación de alternativas; en el Capítulo 4 se presenta la conceptualización del modelo matemático del sistema hídrico de la Mojana; en el Capítulo 5 se describe la formulación numérica del modelo, se incluyen las ecuaciones gobernantes, se presenta un listado de los datos requeridos y los parámetros de calibración del modelo; en el Capítulo 6 se describen los datos utilizados en el montaje y aplicación del modelo correspondiente a información secundaria recopilada y procesada en este estudio; en el Capítulo 7 se describe la calibración hidráulica e hidrológica del sistema y se resumen brevemente las actividades de implementación y simulación de escenarios que se considera permitieron entender mejor el complejo sistema hídrico de la región de la Mojana, y optimizar el diseño previsto de obras hidráulicas, canales y limpieza y adecuación de caños. Finalmente, en el Capítulo 8 se presentan las conclusiones y recomendaciones.</t>
+    <t xml:space="preserve">Informe </t>
+  </si>
+  <si>
+    <t>El documento "Volumen 1. Modelación Matemática: Estudios, Análisis y Recomendaciones para el Ordenamiento Ambiental y el Desarrollo Territorial de La Mojana" presenta una serie de resultados clave derivados de la modelación matemática del sistema hídrico de la región de La Mojana, Colombia. A través de un enfoque integral, se desarrolló un modelo que permite simular y evaluar la cantidad y calidad del agua en diferentes escenarios hidrológicos, lo que resulta fundamental para la planificación y diseño de obras hidráulicas. Los resultados relevantes de este informe son los siguientes: 1. Desarrollo de un Modelo Integrado: Se implementó un modelo matemático que combina aspectos hidráulicos y de calidad del agua, permitiendo una evaluación holística del sistema hídrico de La Mojana. 2. Calibración Exitosa: La calibración del modelo se realizó utilizando datos de campo, lo que garantiza la fiabilidad de las simulaciones y la capacidad de predecir el comportamiento del sistema bajo diversas condiciones. 3. Simulación de Escenarios: Se lograron simular diferentes escenarios de manejo hidráulico y sedimentológico, lo que permite comparar alternativas y optimizar el diseño de infraestructuras. 
+4. Identificación de Problemas Críticos: El análisis del modelo permitió identificar áreas críticas en el sistema hídrico que requieren atención, como la eutrofización y la sedimentación excesiva. El informe concluye que la modelación matemática es una herramienta esencial para la gestión del agua en La Mojana, proporcionando información valiosa para la toma de decisiones en el ordenamiento territorial. Además, la implementación del modelo ha permitido simular y comparar diferentes alternativas de manejo, lo que contribuye a una mejor planificación de obras hidráulica</t>
   </si>
   <si>
     <t>Si</t>
   </si>
   <si>
-    <t>Anexo 1-1: Formulación numérica del modelo MDLC-QUASAR extendido._x000D_
-Anexo 1-2: Estudio hidroclimático._x000D_
-Anexo 1-3: Curvas de capacidad._x000D_
-Anexo 1-4: Aspectos hidráulicos._x000D_
-Anexo 1-5: Implementación del modelo hidráulico en HEC RAS_x000D_
-Mapa 1-1. Cotas cero_x000D_
-Mapa 1-2. Abscisado_x000D_
-Mapa 1-3. PoligonosThiessen_x000D_
-Mapa 1-4. Alternativa de manejo</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1.File folder</t>
   </si>
   <si>
     <t>La información referenciada en el informe y los insumos utilizadas para lograr el objetivo del proyecto, reposa en los anexos, sin embargo, en el Anexo 1-5 se presenta la construcción de un modelo 1D en HEC-RAS, el cual, no se encuentra dentro de la información suministrada</t>
   </si>
   <si>
-    <t>Modelación, Escenarios hidrológicos, Calidad de aguas, Río Cauca, Ciénagas, Río San Jorge, Río Magdalena, Sólidos en suspensión, Obras hidráulicas, MATLAB/SIMULINK, Caños, Hidráulica, Sistema hídrico, Sedimentación, Estructuras hidráulica, Simulación, Calibración.</t>
+    <t>Modelación, escenarios hidrológicos, calidad de aguas, río cauca, ciénagas, Río San Jorge, Río Magdalena, sólidos en suspensión, obras hidráulicas, matlab/simulink, caños, hidráulica, sistema hídrico, sedimentación, estructuras hidráulica, simulación, calibración.</t>
   </si>
   <si>
     <t>PR1004</t>
@@ -194,27 +195,27 @@
     <t>Vol2_Evaluación Dique Marginal_vFINAL_23abr2012</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento constituye el Volúmen 2 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región. _x000D_
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 2/Vol2_Evaluación Dique Marginal_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento constituye el Volúmen 2 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región. 
 El documento presenta el análisis y diseño preliminar de las obras para la recuperación del dique marginal del río Cauca que busca una dinámica de alivio de los caudales del Río Cauca hacia la ciénaga por medio de diques vertederos que conecten con los caños en los caudales de exceso. </t>
   </si>
   <si>
-    <t xml:space="preserve">El objetivo principal del documento es evaluar la condición del dique marginal en la región de La Mojana, identificar áreas críticas y proponer recomendaciones para su manejo y desarrollo sostenible. Para ello se realizarón recorridos en campo desde Colorado (Antioquia) hasta Achí (Bolivar) con el fin de analizar la estructura existente, rompederos y caños asociados, en el componente geomorfológico, geológico, hidrológico e hidráulico.  El análisis de las condiciones existentes fue clave para la selección de los diques vertederos propuestos y otras obras de adecuaciones para los caños, para los cuales se presentan presupuestos aproximados pues no se realizan los diseños a un nivel detallado.  _x000D_
-En los recorridos de campo se buscó principalmente entender los puntos críticos del dique actual y la conexión existente con los caños, complementado con un análisis de dinámica evolutiva del río Cauca. Posteriormente, en el estudio hidráulico se realizaron aforos en los puntos críticos definidos sobre el Río Cauca: Rompedero Nuevo Mundo y Santa Anita, así como en los principales caños. Se realizó una modelación hidráulica en HEC-RAS 4.1.0 de 2010 del tramo Colorado-Nequi y Nequi-Achí, para conocer los niveles de la lámina de agua y compararlos con el nivel de la corona del dique. En cuanto al análisis geotécnico se identificó los puntos donde el dique ha sufrido fallas, para relacionarse con las secciones de diseño e identificar los factores geotécnicos involucrados en el rompimiento del dique (principalmente fenómenos erosivos). _x000D_
-_x000D_
-En cuanto a las obras de derivación propuestas para aliviar el caudal del Río Cauca, se presentan los 7 diques vertederos en los rompederos Nuevo Mundo, Santa Anita, Potrero Nuevo, Tenche, Las Brisas (único dique vertedero existente en 2012), Caimital y La Tea. Dentro de las obras presentadas se encuentran: protección de 500m de la rivera del Rio en el municipio de San Jacinto del Cauca. Construcción de baterías de espolones en los rompederos Nuevo Mundo y Caregato. Reconstrucción de 1553m de dique en rompederos Ladero, Nuevo Mundo, Pedro Ignacio y Santa Anita. Reforzamiento del dique con contradique  y protección de la cara húmeda del talud con geostera para la socavación, así mismo con geoestera se propone la protección de la ribera izquierda.  Dado que se propone un dique carreteable, las obras asociadas a esto corresponden a  construcción de cunetas perimetrales y canales escalonados cada 150m que reciban aguas de las cunetas para control del agua en la corona del dique. Para la carpeta de rodadura se proponen 40cm de afirmado en la corona del talud (se presentan las opciones para la provisión del material).  _x000D_
-_x000D_
-Se presenta el presupuesto aproximado para 2 alternativas de adecuación de los caños de La Mojana con conexión al tramo de estudio. Se presenta un presupuesto aproximado para las obras de recuperación y reforzamiento del dique marginal al río Cauca, para un total de $241.573 Millones de pesos._x000D_
- _x000D_
+    <t xml:space="preserve">El objetivo principal del documento es evaluar la condición del dique marginal en la región de La Mojana, identificar áreas críticas y proponer recomendaciones para su manejo y desarrollo sostenible. Para ello se realizarón recorridos en campo desde Colorado (Antioquia) hasta Achí (Bolivar) con el fin de analizar la estructura existente, rompederos y caños asociados, en el componente geomorfológico, geológico, hidrológico e hidráulico.  El análisis de las condiciones existentes fue clave para la selección de los diques vertederos propuestos y otras obras de adecuaciones para los caños, para los cuales se presentan presupuestos aproximados pues no se realizan los diseños a un nivel detallado.  
+En los recorridos de campo se buscó principalmente entender los puntos críticos del dique actual y la conexión existente con los caños, complementado con un análisis de dinámica evolutiva del río Cauca. Posteriormente, en el estudio hidráulico se realizaron aforos en los puntos críticos definidos sobre el Río Cauca: Rompedero Nuevo Mundo y Santa Anita, así como en los principales caños. Se realizó una modelación hidráulica en HEC-RAS 4.1.0 de 2010 del tramo Colorado-Nequi y Nequi-Achí, para conocer los niveles de la lámina de agua y compararlos con el nivel de la corona del dique. En cuanto al análisis geotécnico se identificó los puntos donde el dique ha sufrido fallas, para relacionarse con las secciones de diseño e identificar los factores geotécnicos involucrados en el rompimiento del dique (principalmente fenómenos erosivos). 
+En cuanto a las obras de derivación propuestas para aliviar el caudal del Río Cauca, se presentan los 7 diques vertederos en los rompederos Nuevo Mundo, Santa Anita, Potrero Nuevo, Tenche, Las Brisas (único dique vertedero existente en 2012), Caimital y La Tea. Dentro de las obras presentadas se encuentran: protección de 500m de la rivera del Río en el municipio de San Jacinto del Cauca. Construcción de baterías de espolones en los rompederos Nuevo Mundo y Caregato. Reconstrucción de 1553m de dique en rompederos Ladero, Nuevo Mundo, Pedro Ignacio y Santa Anita. Reforzamiento del dique con contradique  y protección de la cara húmeda del talud con geostera para la socavación, así mismo con geoestera se propone la protección de la ribera izquierda.  Dado que se propone un dique carreteable, las obras asociadas a esto corresponden a  construcción de cunetas perimetrales y canales escalonados cada 150m que reciban aguas de las cunetas para control del agua en la corona del dique. Para la carpeta de rodadura se proponen 40cm de afirmado en la corona del talud (se presentan las opciones para la provisión del material).  
+Se presenta el presupuesto aproximado para 2 alternativas de adecuación de los caños de La Mojana con conexión al tramo de estudio. Se presenta un presupuesto aproximado para las obras de recuperación y reforzamiento del dique marginal al río Cauca, para un total de $241.573 Millones de pesos.
 Algunas de las limitaciones que se reconocen en el estudio es el no monitoreo de variaciones en el nivel freático a lo largo del dique, el no detalle en los ensayos de densidad de campo y de compactación de los suelos en el dique, las cantidades son estimadas pues a la fecha del estudio no se tenia diseños finales, no se realizó un levantamiento topográfico ni batimetrías en las secciones transversales. Es importante mencionar que este informe toma como referencia las obras propuestas en el estudio CONTROL DE INUNDACIONES EN LA REGIÓN DE LA MOJANA, UNAL 2006 - INVIAS-MINTRANSPORTE. </t>
   </si>
   <si>
-    <t>Anexo 2.4:  Ensayos-laboratorio.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 2/Anexos producto 2.File folder</t>
   </si>
   <si>
     <t xml:space="preserve">En este reporte, el estudio no considera variables bióticas ni socioecológicas, sólo se dan soluciones a un nivel técnico estructural hidráulico para eventos de inundación, no se contempla sequía. </t>
   </si>
   <si>
-    <t>Inundación, Dique marginal, Niveles en el río Cauca, Estructuras hidráulicas, Dique vertedero, Rompederos, Colorado, Achí, Nuevo Mundo, Santa Anita, Potrero Nuevo, Tenche, Las Brisas, Caimital y La Tea, Obras existentes, Modelo hidráulico, Geología, Geomorfología, Hidrología, Presupuesto obras, Estudios Geotécnicos, Caudal, Aforo.</t>
+    <t>Inundación, dique marginal, niveles en el río cauca, estructuras hidráulicas, dique vertedero, rompederos, Colorado, Achí, Nuevo Mundo, Santa Anita, Potrero Nuevo, Tenche, Las Brisas, Caimital, La Tea, obras existentes, modelo hidráulico, geología, geomorfología, hidrología, presupuesto obras, estudios geotécnicos, caudal, aforo.</t>
   </si>
   <si>
     <t>PR1005</t>
@@ -223,41 +224,40 @@
     <t>Vol3_Viabilidad Canal Paralelo_vFINAL_23abr2012</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento constituye el Volúmen 3 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región_x000D_
-_x000D_
-El objetivo del informe es evaluar, a nivel de pre-factibilidad, la viabilidad técnica, social, ambiental y económica de la construcción de un canal paralelo a la vía Achí – Majagual – San Marcos en la región de la Mojana, Colombia. Este canal tiene como finalidad principal aliviar la presión de inundaciones en la zona, al tiempo que se busca garantizar el suministro de agua durante períodos de sequía extrema. El análisis es soportado en una simulación hidrológica para obtener los caudales que llegan a la región y canal diseñado, y mediante una simulación hidráulica se evidencia el comportamiento del agua en el canal y zonas aledañas._x000D_
-El informe también se propone proporcionar un diagnóstico calificado de la situación actual del sistema de drenaje en la región, así como recomendaciones para el manejo y ordenamiento del sistema hídrico, con el fin de promover el desarrollo territorial y mejorar las condiciones ambientales en la Mojana_x000D_
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Vol3_Viabilidad Canal Paralelo_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento constituye el Volúmen 3 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región. El objetivo del informe es evaluar, a nivel de pre-factibilidad, la viabilidad técnica, social, ambiental y económica de la construcción de un canal paralelo a la vía Achí – Majagual – San Marcos en la región de la Mojana, Colombia. Este canal tiene como finalidad principal aliviar la presión de inundaciones en la zona, al tiempo que se busca garantizar el suministro de agua durante períodos de sequía extrema. El análisis es soportado en una simulación hidrológica para obtener los caudales que llegan a la región y canal diseñado, y mediante una simulación hidráulica se evidencia el comportamiento del agua en el canal y zonas aledañas. El informe también se propone proporcionar un diagnóstico calificado de la situación actual del sistema de drenaje en la región, así como recomendaciones para el manejo y ordenamiento del sistema hídrico, con el fin de promover el desarrollo territorial y mejorar las condiciones ambientales en la Mojana
 </t>
   </si>
   <si>
-    <t>Con los estudios se determinó que el caño Rabón cumple con las condiciones que se buscan de tener un canal paralelo a la vía, dado que lo es en la mayor parte de su recorrido; sin embargo, la ampliación del caño Rabón, o la construcción de un canal que lo remplace o lo suplemente a lo largo de la vía San Marcos-Guaranda, no sería suficiente para impedir las inundaciones, dado que la primera zona de desborde está aguas arriba en la zona de Santa Anita y Nuevomundo donde se han diseñado vertederos para los caños Barro, Pescado y Muñoz, y San Matías. Estas estructuras y el mejoramiento de todos los canales incluyendo los caños Mojana y Pancegüita, son requeridas._x000D_
-En consecuencia, no resulta viable la idea del Canal Paralelo a la carretera San Marcos – Achí, ni tampoco el mejoramiento un solo canal de los existentes. De hacerlo, por ejemplo con el caño Rabón, que es paralelo a la vía, los caudales máximos serían del orden de 1200 mcs, lo cual es un canal por lo menos tan grande como el Canal del Dique, cuyo caudal medio actual es de 540 mcs y cuyo caudal máximo es aproximadamente 1200 mcs. Debe tenerse en cuenta que las pendientes de los caños de la Mojana son menores que las del Canal del Dique, requiriendo secciones más grandes para igual capacidad._x000D_
-La mejor forma de organizar el sistema de drenaje es priorizando el arreglo de los caños desde aguas arriba hacia aguas abajo, dado que los primeros son los que verdaderamente pueden prevenir las inundaciones hacia aguas abajo._x000D_
-Adicionalmente, el informe relaciona para todo el proyecto de estudio construido  mediante modelación o simulación matemática que se deben construir siete diques vertederos para un vertimiento controlado de aguas de exceso del río Cauca hacia caños receptores en los cuales debe realizarce una adecuación de los mismos incluyendo la construcción de diques de protección alejados de la orilla. Con estas propuestas se controlaría inundaciones fuertes para periodos de recurrencia (periodo de retorno) de 50 años. Fundamentalmente, la adecuación debe realizarse para todos los canales de forma organizada desde aguas arriba hacia aguas abajo sentido de flujo del río Cauca._x000D_
-Todo el desarrollo matemático, hidrológico e hidráulico va enmarcado en un entendimiento y ordenamiento del patrón de drenaje en la región con el fin de reducir las inundaciones al interior de la Mojana, permitiendo el desarrollo agropecuario, y mejorando las condiciones limnológicas y de calidad del agua del delta hídrico interior como objetivo._x000D_
-Las simulaciones hidráulicas contemplan cuatro corridas o escenarios:_x000D_
-Escenario 1. Situación actual con caudales medios y bajos._x000D_
-Escenario 2. Situación actual con desbordamientos. Caudales máximos._x000D_
-Escenario 3. Situación futura con vertederos hacia Ayapel, y caños mejorados._x000D_
-Escenario 4. Situación futura con caños mejorados y jarillones de protección._x000D_
-Los beneficios de calidad de agua y limnología en el informe no fueron terminados de evaluarse porque no se  tuvieron análisis completos de calidad del agua y del Índice de Estado Limnológico de los cuerpos de agua modelados porque fue escaza tal información. Así mismo, se considera que las obras de adecuación de los caños con miras a controlar las aguas provenientes del río Cauca que ingresan a la Mojana, podrían causar efectos ecológicos importantes sobre las ciénagas y sobre sus comunidades bióticas, en especial los peces. Se requiere por tanto un plan de monitoreo limnológico de estos ambientes a fin de prever y mitigar posibles efectos nocivos sobre los ecosistemas acuáticos.</t>
-  </si>
-  <si>
-    <t>ANEXO 3-1:  Geomorfología y dinámica fluvial de La Mojana._x000D_
-ANEXO 3-2:  Revisión sobre las características limnológicas de los sistemas acuáticos de la región de La Mojana. _x000D_
-ANEXO 3-3: Informe de Campo</t>
+    <t xml:space="preserve">Con los estudios se determinó que el caño Rabón cumple con las condiciones que se buscan de tener un canal paralelo a la vía, dado que lo es en la mayor parte de su recorrido; sin embargo, la ampliación del caño Rabón, o la construcción de un canal que lo remplace o lo suplemente a lo largo de la vía San Marcos-Guaranda, no sería suficiente para impedir las inundaciones, dado que la primera zona de desborde está aguas arriba en la zona de Santa Anita y Nuevomundo donde se han diseñado vertederos para los caños Barro, Pescado y Muñoz, y San Matías. Estas estructuras y el mejoramiento de todos los canales incluyendo los caños Mojana y Pancegüita, son requeridas.
+En consecuencia, no resulta viable la idea del Canal Paralelo a la carretera San Marcos – Achí, ni tampoco el mejoramiento un solo canal de los existentes. De hacerlo, por ejemplo con el caño Rabón, que es paralelo a la vía, los caudales máximos serían del orden de 1200 mcs, lo cual es un canal por lo menos tan grande como el Canal del Dique, cuyo caudal medio actual es de 540 mcs y cuyo caudal máximo es aproximadamente 1200 mcs. Debe tenerse en cuenta que las pendientes de los caños de la Mojana son menores que las del Canal del Dique, requiriendo secciones más grandes para igual capacidad.
+La mejor forma de organizar el sistema de drenaje es priorizando el arreglo de los caños desde aguas arriba hacia aguas abajo, dado que los primeros son los que verdaderamente pueden prevenir las inundaciones hacia aguas abajo. Adicionalmente, el informe relaciona para todo el proyecto de estudio construido  mediante modelación o simulación matemática que se deben construir siete diques vertederos para un vertimiento controlado de aguas de exceso del río Cauca hacia caños receptores en los cuales debe realizarce una adecuación de los mismos incluyendo la construcción de diques de protección alejados de la orilla. Con estas propuestas se controlaría inundaciones fuertes para periodos de recurrencia (periodo de retorno) de 50 años. Fundamentalmente, la adecuación debe realizarse para todos los canales de forma organizada desde aguas arriba hacia aguas abajo sentido de flujo del río Cauca. Todo el desarrollo matemático, hidrológico e hidráulico va enmarcado en un entendimiento y ordenamiento del patrón de drenaje en la región con el fin de reducir las inundaciones al interior de la Mojana, permitiendo el desarrollo agropecuario, y mejorando las condiciones limnológicas y de calidad del agua del delta hídrico interior como objetivo.
+Las simulaciones hidráulicas contemplan cuatro corridas o escenarios:
+Escenario 1. Situación actual con caudales medios y bajos.
+Escenario 2. Situación actual con desbordamientos. Caudales máximos.
+Escenario 3. Situación futura con vertederos hacia Ayapel, y caños mejorados.
+Escenario 4. Situación futura con caños mejorados y jarillones de protección.
+Los beneficios de calidad de agua y limnología en el informe no fueron terminados de evaluarse porque no se  tuvieron análisis completos de calidad del agua y del Índice de Estado Limnológico de los cuerpos de agua modelados porque fue escaza tal información. Así mismo, se considera que las obras de adecuación de los caños con miras a controlar las aguas provenientes del río Cauca que ingresan a la Mojana, podrían causar efectos ecológicos importantes sobre las ciénagas y sobre sus comunidades bióticas, en especial los peces. Se requiere por tanto un plan de monitoreo limnológico de estos ambientes a fin de prever y mitigar posibles efectos nocivos sobre los ecosistemas acuáticos. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Anexos producto 3.File folder</t>
   </si>
   <si>
     <t>El documento presenta un análisis detallado y bien estructurado sobre la viabilidad del canal paralelo, lo que refleja un esfuerzo significativo en la recopilación de datos y la modelación matemática. Poporciona un buen insumo para la toma de decisiones, sin embargo,presenta algunas limitaciones en cuanto a la disponibilidad de datos (no se encuentra el modelo).</t>
   </si>
   <si>
-    <t>Geomorfología, Dinámica Fluvial, Limnología, Ayapel, Ciénaga de Ayapel, Adecuación, Macrófitas, características fisicoquímicas, Dique Vertedero, Dique Paralelo, Nuevo Mundo, Santa Anita, Potrero Nuevo, Tenche, Las Brisas, Caimital, La Tea, Caño Mojana, Sistema Cenagoso, Caño Rabón, Dragado, Limpieza, empalizadas, Drenaje, Pre-factibilidad, Metales Pesados, Canal.</t>
+    <t>Geomorfología, dinámica fluvial, limnología, Ayapel, Ciénaga De Ayapel, adecuación, macrófitas, características fisicoquímicas, dique vertedero, dique paralelo, Nuevo Mundo, Santa Anita, Potrero Nuevo, Tenche, Las Brisas, Caimital, La Tea, Caño Mojana, sistema cenagoso, caño rabón, dragado, limpieza, empalizadas, drenaje, pre-factibilidad, metales pesados, canal.</t>
   </si>
   <si>
     <t>PR1006</t>
   </si>
   <si>
     <t>Vol4_Priorización Caños_vFINAL_23abr2012</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 4/Vol4_Priorización Caños_vFINAL_23abr2012.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">El documento constituye el Volúmen 4 del Convenio Inter administrativo UN-DNP No. 336 de 2011, suscrito entre la Universidad Nacional de Colombia y el Departamento Nacional de Planeación con el objetivo “Aunar esfuerzos para la formulación de estrategias de corto plazo que requiere el ordenamiento ambiental y el desarrollo territorial de la región de la Mojana, particularmente la realización de estudios, análisis y recomendaciones sobre las obras de infraestructuras necesarias y prioritarias en la región.  _x000D_
@@ -281,41 +281,109 @@
 </t>
   </si>
   <si>
-    <t>Los anexos se encuentran dentro del documento:_x000D_
-_x000D_
-Anexo 1: Rango de variables físicas y químicas relacionadas con cada especie registrada en la región de La Mojana durante diciembre de 2011 y enero-febrero de 2012._x000D_
-Anexo 2: Biometría de las especies registradas en la región de La Mojana durante diciembre de 2011 y enero-febrero de 2012</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 4/Anexos producto 4.File folder</t>
   </si>
   <si>
     <t>El documento aborda de manera integral la problemática ambiental de la región de La Mojana, considerando tanto los aspectos ecológicos como los sociales y económicos. Fundamental para la formulación de estrategias efectivas de manejo y restauración. Las recomendaciones presentadas son prácticas y relevantes para la toma de decisiones en la gestión ambiental. Proponen acciones concretas que pueden ser implementadas por las autoridades locales y comunidades.</t>
   </si>
   <si>
-    <t>Caños, Caudal, Velocidad, Temperatura, Conductividad eléctrica, Oxígeno disuelto, Saturación de oxígeno, pH, Alcalinidad, Metales pesados, Pesticidas, Fauna Ictica, Fauna silvestre, Vegetación, Biodiversidad, Humedal, Ciénaga, Calidad del agua, Sedimentos, Conectividad hídrica, Dinámica hidrológica, Inundación, Peces, Aves, Mamíferos, San Marcos, San Benito Abad, Sucre, Majagual, Guaranda, San Jacinto del Cauca, Ayapel.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 6/Vol6_Evaluación Sistémica Dimensión Ambiental Mojana_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 5/Vol5_Diagnóstico Prácticas e Instrumentos de Gestión_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Vol1_Modelación Matemática_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 2/Vol2_Evaluación Dique Marginal_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Vol3_Viabilidad Canal Paralelo_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 4/Vol4_Priorización Caños_vFINAL_23abr2012.pdf</t>
+    <t>Caños, caudal, velocidad, temperatura, conductividad eléctrica, oxígeno disuelto, saturación de oxígeno, ph, alcalinidad, metales pesados, pesticidas, fauna ictica, fauna silvestre, vegetación, biodiversidad, humedal, ciénaga, calidad del agua, sedimentos, conectividad hídrica, dinámica hidrológica, inundación, peces, aves, mamíferos, San Marcos, San Benito Abad, Sucre, Majagual, Guaranda, San Jacinto Del Cauca, Ayapel.</t>
+  </si>
+  <si>
+    <t>PR1007</t>
+  </si>
+  <si>
+    <t>Anexo 1-2 Estudio Hidroclimatológico_vFINAL_23abr2012</t>
+  </si>
+  <si>
+    <t>PR1008</t>
+  </si>
+  <si>
+    <t>Anexo 1-3 Curvas de Capacidad_vFINAL_23abr2012</t>
+  </si>
+  <si>
+    <t>PR1009</t>
+  </si>
+  <si>
+    <t>Anexo 3-1 Geología, Geomorfología y Dinámica Fluvial Mojana_vFINAL_23abr2012</t>
+  </si>
+  <si>
+    <t>PR1010</t>
+  </si>
+  <si>
+    <t>Anexo 3-2 Características Limnológicas Sistemas Acuáticos Mojana_vFINAL_23abr2012</t>
+  </si>
+  <si>
+    <t>PR1011</t>
+  </si>
+  <si>
+    <t>Anexo 1-1 Formulación numérica Mod MDLC-QUASAR_vFINAL_23abr2012</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-1 Formulación numérica Mod MDLC-QUASAR_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>PR1012</t>
+  </si>
+  <si>
+    <t>2.4 Ensayos-laboratorio.</t>
+  </si>
+  <si>
+    <t>Informe de ensayos de Laboratorio para realizar la evaluación del Dique Marginal.</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis técnico detallado de la caracterización geotécnica y hidráulica de diferentes suelos de La Mojana. El objetivo principal del estudio es evaluar el comportamiento de los suelos ante la acción del agua, identificando su erodabilidad y estabilidad, así como las interacciones entre las propiedades granulométricas y las fuerzas físicas que afectan su resistencia.
+El estudio se centra en varias áreas específicas, incluyendo el rompedero de Laredo, la boca del cura, Caregato y Pedro Ignacio. Cada una de estas zonas presenta características geológicas y granulométricas distintas, lo que permite una comparación exhaustiva de los materiales analizados. En particular, se examinan suelos compuestos por limos de alta compresibilidad y otros con un contenido significativo de partículas gruesas, lo que influye en su comportamiento hidráulico.
+El documento concluye que, aunque algunos suelos no son dispersivos, su configuración granulométrica puede generar condiciones que faciliten la erosión y el agrietamiento, especialmente bajo la influencia de fuerzas físicas como las presiones de poros. Se recomienda realizar estudios adicionales para profundizar en la comprensión del comportamiento de estos suelos y su potencial de erodabilidad</t>
+  </si>
+  <si>
+    <t>l documento presenta un análisis detallado de los ensayos de laboratorio realizados sobre diferentes tipos de suelos, lo que es positivo para la comprensión de su comportamiento hidráulico y geotécnico. Sin embargo, algunos resultados y conclusiones podrían beneficiarse de una mayor claridad y profundidad en la explicación de los métodos utilizados y su relevancia</t>
+  </si>
+  <si>
+    <t>Geotecnia, geomorfología, rompedero, caudal, suelo, Caregato, Boca del Cura, Santa Anita, Laredo, Nuevo Mundo, Pinhole, materiales, suelo, granulometría</t>
+  </si>
+  <si>
+    <t>PR1013</t>
+  </si>
+  <si>
+    <t>Aforos Salida 2_Volumen-4</t>
+  </si>
+  <si>
+    <t>Resultados de aforo líquido del Caño Gramalote utilizados para la caracterización física de los caños de la baja y media Mojana.</t>
+  </si>
+  <si>
+    <t>base de datos de aforos del caño Gramalote utilizados para la caracterización física de los caños de la baja y media Mojana</t>
+  </si>
+  <si>
+    <t>el documento contiene una base de datos de aforos</t>
+  </si>
+  <si>
+    <t>Caño Gramalote, aforo, caudal, área, velocidad, velocidad promedio</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-2 Estudio Hidroclimatológico_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-3 Curvas de Capacidad_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Anexos producto 3/Anexo 3-1 Geología, Geomorfología y Dinámica Fluvial Mojana_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Anexos producto 3/Anexo 3-2 Características Limnológicas Sistemas Acuáticos Mojana_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 2/Anexos producto 2/2.4 Ensayos-laboratorio..pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 4/Anexos del producto 4/Aforos Salida 2_Volumen-4.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,16 +405,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -408,20 +501,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -480,8 +614,12 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -782,7 +920,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1070,18 +1208,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1150,7 +1288,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1160,273 +1298,273 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>2012</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O2" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>30</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>2012</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="2">
         <v>2012</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="O4" s="12" t="s">
         <v>45</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2">
         <v>2012</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>52</v>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2">
         <v>2012</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1434,55 +1572,307 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2">
         <v>2012</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>66</v>
+      <c r="M14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/P0016/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0016/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0016/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{92585E01-F61B-4797-A860-91BBAED9DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3BBBC37-C6DF-4176-8399-13B5F189E5AA}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{92585E01-F61B-4797-A860-91BBAED9DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED41031E-5E06-48D7-A680-50555B18FBD6}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="122">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -296,24 +296,84 @@
     <t>Anexo 1-2 Estudio Hidroclimatológico_vFINAL_23abr2012</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-2 Estudio Hidroclimatológico_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>El documento titulado "Estudio hidroclimatológico región de La Mojana" presenta un exhaustivo estudio hidroclimatológico que evalúa la calidad, consistencia y validez de la información hidrometeorológica en la región de La Mojana. A través de un análisis detallado de datos de precipitación, temperatura, humedad relativa y evaporación, se aplicaron diversas pruebas estadísticas para identificar y corregir datos anómalos, garantizando la integridad de la información utilizada.</t>
+  </si>
+  <si>
+    <t>El objetivo de este estudio es proporcionar un análisis integral de la información hidroclimatológica en la región de La Mojana. El estudio empleó un enfoque metodológico que combina la recopilación de datos, análisis estadístico y visualización gráfica. Se utilizaron herramientas estadísticas para evaluar la homogeneidad y validez de los datos, así como software especializado para la creación de diagramas Boxplot y la aplicación de pruebas de outliers. Se realizó un inventario de datos meteorológicos, incluyendo precipitación, temperatura, humedad relativa y evaporación, recopilados de diversas estaciones operadas por el Instituto de Hidrología, Meteorología y Estudios Ambientales (IDEAM). Se identificaron las estaciones más relevantes, como Pinillos, La Apartada, Guacamayo y Zapata, que son cruciales para el análisis climatológico de la región. Se realizó un análisis gráfico utilizando diagramas Boxplot, donde se identificaron registros anómalos. Al igual que en el análisis de precipitación, se aplicaron pruebas estadísticas para confirmar la validez de los datos, asegurando la calidad de la información. El estudio concluye que la calidad de la información hidrometeorológica es fundamental para la toma de decisiones en el ordenamiento territorial. Se destaca la necesidad de mantener un monitoreo continuo y la implementación de protocolos de validación de datos para asegurar la consistencia y fiabilidad de la información. Además, se recomienda la capacitación del personal encargado de la recolección y análisis de datos para minimizar errores en el proceso.</t>
+  </si>
+  <si>
+    <t>El documento presenta un enfoque riguroso en la recopilación y análisis de datos hidroclimatológicos, lo que es un aspecto positivo. Sin embargo, se identifican vacíos en la información en algunas estaciones meteorológicas</t>
+  </si>
+  <si>
+    <t>Hidroclimatología, precipitación, temperatura, ordenamiento territorial, La Mojana.</t>
+  </si>
+  <si>
     <t>PR1008</t>
   </si>
   <si>
     <t>Anexo 1-3 Curvas de Capacidad_vFINAL_23abr2012</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-3 Curvas de Capacidad_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>Este documento corresponde a las Curvas de Capacidad Profundidad – Área – Volumen de las Ciénagas. Es un informe técnico que forma parte de los "Estudios, Análisis y Recomendaciones para el Ordenamiento Ambiental y el Desarrollo Territorial de La Mojana", realizado bajo el Convenio Interadministrativo UN-DNP No. 336/2011. El estudio se centra en la región de La Mojana, que abarca varios municipios de los departamentos de Sucre y Córdoba en Colombia, incluyendo áreas críticas como las ciénagas de Ayapel, San Marcos, La Hormiga, Los Palos, Machado, Los Patos, Las Islas y Los Murciélagos.</t>
+  </si>
+  <si>
+    <t>El objetivo principal de este estudio es eterminar las curvas de capacidad de las ciénagas en términos de profundidad, área y volumen, con el fin de realizar un balance hídrico que permita una mejor gestión y conservación de estos ecosistemas. El estudio emplea diversas metodologías, incluyendo la clasificación de imágenes satelitales, la conversión de datos raster a polígonos, y el uso de sistemas de información geográfica (SIG) para el análisis espacial. Los principales softwares utilizados son ArcGIS para el cálculo de áreas y ERDAS para el procesamiento de imágenes satelitales. Además, se utilizó el servidor ESDI de la Universidad de Maryland para obtener imágenes satelitales adicionales que completan la serie temporal. Se explica la conversión de las clasificaciones de imágenes raster a polígonos (.shp) para facilitar el cálculo de áreas mediante el software ArcGIS. e detalla el procedimiento para calcular el área superficial y el volumen de agua de cada ciénaga, utilizando datos de niveles proporcionados por el IDEAM y procesados con el software ERDAS. Se presentan las relaciones matemáticas ajustadas que describen la relación entre el nivel, área y volumen de las ciénagas. Se documentan las variaciones en las áreas de las ciénagas a lo largo de diferentes años, utilizando imágenes satelitales desde 1984 hasta 2010, lo que permite un análisis de la dinámica hídrica y los cambios en el uso del suelo. El estudio concluye que las ciénagas de La Mojana son ecosistemas vitales que requieren un manejo adecuado para preservar su funcionalidad ecológica. Se destaca la importancia de utilizar tecnologías de información geográfica para el monitoreo y gestión de estos cuerpos de agua. Además, se identificó la necesidad de implementar políticas de conservación que consideren las variaciones en el uso del suelo y el impacto del cambio climático.</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis detallado y bien estructurado sobre las ciénagas de La Mojana, lo que refleja un esfuerzo significativo en la recopilación y procesamiento de datos. La inclusión de imágenes satelitales y el uso de software especializado como ArcGIS y ERDAS son aspectos positivos que fortalecen la validez de los resultados obtenidos.</t>
+  </si>
+  <si>
+    <t>Ciénega, curva de capacidad, hidrología, imágenes satelitales, ordenamiento ambiental, desarrollo territorial, conservación, monitoreo ambiental, cambio climático, ArcGIS.</t>
+  </si>
+  <si>
     <t>PR1009</t>
   </si>
   <si>
     <t>Anexo 3-1 Geología, Geomorfología y Dinámica Fluvial Mojana_vFINAL_23abr2012</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Anexos producto 3/Anexo 3-1 Geología, Geomorfología y Dinámica Fluvial Mojana_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>Este informe titulado "Geología, Geomorfología y Dinámica Fluvial de la Mojana" presenta un análisis exhaustivo de la región de la Mojana, enfocándose en su geología, geomorfología y dinámica fluvial. Este informe se enmarca dentro del Convenio Interadministrativo UN-DNP No. 336/2011</t>
+  </si>
+  <si>
+    <t>El objetivo de este documento es proporcionar un análisis detallado de la geología, geomorfología y dinámica fluvial de la región de la Mojana, con el fin de ofrecer estudios, análisis y recomendaciones que contribuyan al ordenamiento ambiental y al desarrollo territorial de esta área.  El desarrollo del estudio se basa en una combinación de metodologías geológicas y geomorfológicas, que incluyen perforaciones y dataciones, análisis morfo-estructural y modelación hidrológica. La Depresión Momposina, que incluye el Bajo Cauca, es identificada como una cuenca tectónica con subsidencia activa, influenciada por un sistema de fallas geológicas. Se observa una alta meteorización química en las rocas, indicando una exposición prolongada al intemperismo tropical durante el Cuaternario. e documenta la historia sedimentológica de la cuenca baja, revelando un hiato prolongado en la sedimentación en comparación con el flanco norte, donde se presenta una espesa cobertura de sedimentos marinos. El sistema fluvial del río Cauca muestra un brazo principal relativamente estable, aunque se desarrollan rompederos que contribuyen a la sedimentación y a la dinámica de inundación en la región de La Mojana. Se identifican complejos de ciénagas que actúan como sistemas de amortiguación natural. e analizan las tendencias de inundación y su relación con la morfodinámica del sistema fluvial, destacando la importancia de las tasas de sedimentación y subsidencia en la región. Se concluye que  La identificación de la Depresión Momposina como una cuenca tectónica activa es fundamental para entender los procesos geológicos que afectan la región. La evolución geomorfológica de la región está marcada por procesos de sedimentación y erosión que han modelado el paisaje actual. La dinámica del río Cauca y sus efectos en la región requieren un monitoreo continuo para mitigar los riesgos de inundación y gestionar adecuadamente los recursos hídricos.</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis detallado y bien estructurado de la geología, geomorfología y dinámica fluvial de la región de la Mojana.</t>
+  </si>
+  <si>
+    <t>Geología, geomorfología, dinámica fluvial, inundaciones, desarrollo territorial, sedimentación, ciénega.</t>
+  </si>
+  <si>
     <t>PR1010</t>
   </si>
   <si>
     <t>Anexo 3-2 Características Limnológicas Sistemas Acuáticos Mojana_vFINAL_23abr2012</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Anexos producto 3/Anexo 3-2 Características Limnológicas Sistemas Acuáticos Mojana_vFINAL_23abr2012.pdf</t>
+  </si>
+  <si>
+    <t>Este documento corresponde a una caracterización limnológica de varios de los sistemas acuáticos de La Mojana.  El estudio se enmarca dentro del Convenio Interadministrativo UN-DNP No. 336/2011 y tiene como objetivo principal proporcionar un análisis detallado de las condiciones limnológicas de las ciénagas y cuerpos de agua de la región, así como ofrecer recomendaciones para su ordenamiento ambiental y desarrollo territorial.</t>
+  </si>
+  <si>
+    <t>El objetivo del documento es proporcionar un diagnóstico integral de las características limnológicas de los sistemas acuáticos de La Mojana, identificar las carencias de información y proponer recomendaciones para el manejo y conservación de estos ecosistemas. Se describe la realización de campañas de campo para la recolección de datos, que incluyeron la evaluación de parámetros físico-químicos en diferentes puntos de muestreo durante la transición de lluvias a época seca. Se utilizó un enfoque de muestreo sistemático para obtener una representación adecuada de las condiciones en la región. Entre los resultados mas relevantes se encontró que la nformación limnológica sobre las ciénagas de La Mojana es escasa y dispersa, siendo la ciénaga de Ayapel la más estudiada. Los sistemas cenagosos del sector norte son los menos conocidos, y la limnología de los caños es casi desconocida. La región presenta una rica diversidad de ecosistemas acuáticos, aunque el conocimiento sobre el perifiton, fitoplancton, zooplancton y macroinvertebrados acuáticos es limitado y se restringe a pocos ecosistemas.  Los cuerpos de agua desconectados del río Cauca presentan características orgánicas predominantes, influenciadas por la materia orgánica proveniente de la vegetación y la escorrentía. Las fuertes precipitaciones en la región han generado inundaciones significativas, afectando la dinámica de los ecosistemas acuáticos y la calidad del agua. como conclusión se obtuvo que la falta de información integral sobre los sistemas acuáticos de La Mojana limita la capacidad de gestión y conservación de estos ecosistemas. Es crucial realizar estudios más detallados y sistemáticos sobre la limnología de la región, especialmente en los sistemas menos conocidos. Finalmente, se recomienda implementar un monitoreo continuo de las condiciones físico-químicas del agua y de la biodiversidad acuática para informar decisiones de manejo y conservación.</t>
+  </si>
+  <si>
+    <t>El documento detalla las características limnológicas de los sistemas acuáticos de La Mojana, lo que es positivo para la comprensión del estado ambiental de la región. Sin embargo, se destaca que la información es incompleta y dispersa, especialmente en áreas como la morfología de los cuerpos de agua y la biodiversidad de comunidades bióticas, lo que limita la capacidad de realizar un diagnóstico exhaustivo.</t>
+  </si>
+  <si>
+    <t>Limnología, calidad de agua, monitoreo ambiental, La Mojana, ciénaga,ecosistemas acuáticos, Ayapel</t>
+  </si>
+  <si>
     <t>PR1011</t>
   </si>
   <si>
@@ -323,10 +383,25 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-1 Formulación numérica Mod MDLC-QUASAR_vFINAL_23abr2012.pdf</t>
   </si>
   <si>
+    <t>Este documento titulado "Formulación numérica del modelo MDLC-QUASAR Extendido" presenta un análisis exhaustivo sobre la calidad del agua en la región de La Mojana, en el contexto del Convenio Interadministrativo UN-DNP No. 336/2011. Se desarrolla un modelo matemático que integra el modelo de transporte de solutos ADZ, el modelo hidrológico de flujo no permanente MDLC y el modelo QUASAR de calidad del agua en ríos.</t>
+  </si>
+  <si>
+    <t>El objetivo de este estudio es desarrollar un modelo matemático que permita simular y predecir la calidad del agua en los cuerpos hídricos de La Mojana, integrando diferentes enfoques y modelos existentes. Se busca proporcionar herramientas para la gestión y el ordenamiento ambiental, así como recomendaciones para mitigar la contaminación y mejorar la calidad del agua en la región. El estudio utiliza metodologías de modelación matemática y simulación numérica. Se aplican técnicas de comparación de momentos temporales para relacionar los parámetros del modelo ADZ con otros modelos existentes. Además, se emplean herramientas computacionales para la simulación y análisis de datos. Se presenta el modelo MDLC-QUASAR extendido, que combina el modelo de transporte de solutos ADZ, el modelo hidrológico de flujo no permanente MDLC y el modelo QUASAR de calidad del agua. Se analizan diversos determinantes de calidad del agua, como los coliformes totales, y se modelan utilizando ecuaciones de decaimiento de primer orden. Se desarrollan ecuaciones diferenciales acopladas que describen el comportamiento de la calidad del agua en cada tramo del canal, facilitando la representación de los procesos de mezcla y transporte de solutos. Se concluye que la representación exitosa de los procesos de mezcla longitudinal está relacionada con la incorporación de efectos de velocidad no uniforme, lo que es crucial para la gestión de la calidad del agua en ríos.</t>
+  </si>
+  <si>
+    <t>La descripción de las metodologías utilizadas, aunque no exhaustiva, proporciona una base sólida para entender cómo se desarrollaron los modelos. Sin embargo, sería beneficioso incluir más detalles sobre las herramientas computacionales específicas empleadas.</t>
+  </si>
+  <si>
+    <t>Calidad de agua, modelo MDLC, modelo QUASAR, transporte de solutos, coliformes, análisis ambiental, La Mojana, Modelo matemático, gestión del recurso hídrico.</t>
+  </si>
+  <si>
     <t>PR1012</t>
   </si>
   <si>
     <t>2.4 Ensayos-laboratorio.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 2/Anexos producto 2/2.4 Ensayos-laboratorio..pdf</t>
   </si>
   <si>
     <t>Informe de ensayos de Laboratorio para realizar la evaluación del Dique Marginal.</t>
@@ -349,6 +424,9 @@
     <t>Aforos Salida 2_Volumen-4</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 4/Anexos del producto 4/Aforos Salida 2_Volumen-4.pdf</t>
+  </si>
+  <si>
     <t>Resultados de aforo líquido del Caño Gramalote utilizados para la caracterización física de los caños de la baja y media Mojana.</t>
   </si>
   <si>
@@ -359,31 +437,13 @@
   </si>
   <si>
     <t>Caño Gramalote, aforo, caudal, área, velocidad, velocidad promedio</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-2 Estudio Hidroclimatológico_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Anexo 1-3 Curvas de Capacidad_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Anexos producto 3/Anexo 3-1 Geología, Geomorfología y Dinámica Fluvial Mojana_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 3/Anexos producto 3/Anexo 3-2 Características Limnológicas Sistemas Acuáticos Mojana_vFINAL_23abr2012.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 2/Anexos producto 2/2.4 Ensayos-laboratorio..pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 4/Anexos del producto 4/Aforos Salida 2_Volumen-4.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +939,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -895,13 +962,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -920,7 +980,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1210,11 +1270,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -1231,7 +1291,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1634,147 +1694,287 @@
         <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2">
         <v>2012</v>
@@ -1795,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>26</v>
@@ -1804,7 +2004,7 @@
         <v>27</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>29</v>
@@ -1813,24 +2013,24 @@
         <v>24</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2">
         <v>2013</v>
@@ -1851,7 +2051,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>26</v>
@@ -1860,7 +2060,7 @@
         <v>27</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>29</v>
@@ -1869,10 +2069,10 @@
         <v>24</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1885,6 +2085,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -2028,37 +2237,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>